--- a/data/save_pd.xlsx
+++ b/data/save_pd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E428"/>
+  <dimension ref="A1:E429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,11 +475,11 @@
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1226645_8</t>
+          <t>1226645_22</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -544,11 +544,11 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2574432_17</t>
+          <t>2574432_34</t>
         </is>
       </c>
     </row>
@@ -567,11 +567,11 @@
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2638996_2</t>
+          <t>2638996_3</t>
         </is>
       </c>
     </row>
@@ -590,11 +590,11 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2718947_2</t>
+          <t>2718947_1</t>
         </is>
       </c>
     </row>
@@ -613,11 +613,11 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1734885_1</t>
+          <t>1734885_3</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1758093_25</t>
+          <t>1758093_7</t>
         </is>
       </c>
     </row>
@@ -705,11 +705,11 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2307720_2</t>
+          <t>2307720_1</t>
         </is>
       </c>
     </row>
@@ -728,11 +728,11 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1855739_3</t>
+          <t>1855739_2</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -912,11 +912,11 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2739127_11</t>
+          <t>2739127_12</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -958,11 +958,11 @@
         <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1740014_33</t>
+          <t>1740014_8</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>219913_15</t>
+          <t>219913_19</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1065,11 +1065,11 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2059319_4</t>
+          <t>2059319_2</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1241,11 +1241,11 @@
         <v>18</v>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2564063_1</t>
+          <t>2564063_2</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1402,11 +1402,11 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>481131_11</t>
+          <t>481131_3</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1494,11 +1494,11 @@
         <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2498702_22</t>
+          <t>2498702_23</t>
         </is>
       </c>
     </row>
@@ -1517,11 +1517,11 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>261969_8</t>
+          <t>261969_6</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1586,11 +1586,11 @@
         <v>43</v>
       </c>
       <c r="D51" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>165368_16</t>
+          <t>165368_17</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>37</v>
       </c>
       <c r="D52" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>24</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1655,11 +1655,11 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>HCSC_53_11</t>
+          <t>HCSC_53_6</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
         <v>26</v>
       </c>
       <c r="D55" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1724,11 +1724,11 @@
         <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2773991_15</t>
+          <t>2773991_3</t>
         </is>
       </c>
     </row>
@@ -1747,11 +1747,11 @@
         <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1000_4</t>
+          <t>1000_2</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1003_18</t>
+          <t>1003_11</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>20600121_1</t>
+          <t>20600121_9</t>
         </is>
       </c>
     </row>
@@ -1908,11 +1908,11 @@
         <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14869633_9</t>
+          <t>14869633_92</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1977,11 +1977,11 @@
         <v>9.4</v>
       </c>
       <c r="D68" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>591857_1</t>
+          <t>591857_4</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>8</v>
       </c>
       <c r="D71" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2069,11 +2069,11 @@
         <v>8</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14883570_11</t>
+          <t>14883570_16</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>16</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2184,11 +2184,11 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15953358_22</t>
+          <t>15953358_9</t>
         </is>
       </c>
     </row>
@@ -2207,11 +2207,11 @@
         <v>7</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>607886_15</t>
+          <t>607886_20</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2276,11 +2276,11 @@
         <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>HGTPB-24_7</t>
+          <t>HGTPB-24_25</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2414,11 +2414,11 @@
         <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>HGTPB-30_2</t>
+          <t>HGTPB-30_1</t>
         </is>
       </c>
     </row>
@@ -2437,11 +2437,11 @@
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>HGTPB-31_REVISADO_4</t>
+          <t>HGTPB-31_REVISADO_3</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2483,11 +2483,11 @@
         <v>8</v>
       </c>
       <c r="D90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>HGTPB-33_REVISADO_10</t>
+          <t>HGTPB-33_REVISADO_12</t>
         </is>
       </c>
     </row>
@@ -2506,11 +2506,11 @@
         <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>10852546_2</t>
+          <t>10852546_16</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
         <v>15</v>
       </c>
       <c r="D93" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2598,11 +2598,11 @@
         <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>HGTPB-38_31</t>
+          <t>HGTPB-38_56</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2690,11 +2690,11 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>HGTPB-42_19</t>
+          <t>HGTPB-42_18</t>
         </is>
       </c>
     </row>
@@ -2713,11 +2713,11 @@
         <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>HGTPB-43_1</t>
+          <t>HGTPB-43_2</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
         <v>18</v>
       </c>
       <c r="D101" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2759,11 +2759,11 @@
         <v>7</v>
       </c>
       <c r="D102" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>HGTPB-45_29</t>
+          <t>HGTPB-45_2</t>
         </is>
       </c>
     </row>
@@ -2782,11 +2782,11 @@
         <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>570696_44</t>
+          <t>570696_31</t>
         </is>
       </c>
     </row>
@@ -2805,11 +2805,11 @@
         <v>8</v>
       </c>
       <c r="D104" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>HGTPB-47_8</t>
+          <t>HGTPB-47_11</t>
         </is>
       </c>
     </row>
@@ -2828,11 +2828,11 @@
         <v>13</v>
       </c>
       <c r="D105" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>HGTPB-48_31</t>
+          <t>HGTPB-48_51</t>
         </is>
       </c>
     </row>
@@ -2851,11 +2851,11 @@
         <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>HGTPB-49_40</t>
+          <t>HGTPB-49_29</t>
         </is>
       </c>
     </row>
@@ -2889,11 +2889,11 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>HGTPB-51_10</t>
+          <t>HGTPB-51_6</t>
         </is>
       </c>
     </row>
@@ -2912,11 +2912,11 @@
         <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>HGTPB-52_29</t>
+          <t>HGTPB-52_20</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="D110" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2981,11 +2981,11 @@
         <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>HGTPB-55_10</t>
+          <t>HGTPB-55_7</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3061,1809 +3061,1817 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HULAL-1</t>
+          <t>HGTPB-59</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2458671</t>
+          <t>HGTPB-59</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2458671_23</t>
+          <t>HGTPB-59_11</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HULAL-2</t>
+          <t>HULAL-1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2159300</t>
+          <t>2458671</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D117" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2159300_39</t>
+          <t>2458671_27</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HULAL-3</t>
+          <t>HULAL-2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2740919</t>
+          <t>2159300</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D118" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2740919_14</t>
+          <t>2159300_39</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HULAL-4</t>
+          <t>HULAL-3</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2702175</t>
+          <t>2740919</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D119" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2702175_1</t>
+          <t>2740919_14</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HULAL-5</t>
+          <t>HULAL-4</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2228902</t>
+          <t>2702175</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D120" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2228902_16</t>
+          <t>2702175_1</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HULAL-6</t>
+          <t>HULAL-5</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2488582</t>
+          <t>2228902</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2488582_1</t>
+          <t>2228902_16</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HULAL-7</t>
+          <t>HULAL-6</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2096816</t>
+          <t>2488582</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D122" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2096816_37</t>
+          <t>2488582_3</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HULAL-8</t>
+          <t>HULAL-7</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2427767</t>
+          <t>2096816</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D123" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2427767_18</t>
+          <t>2096816_27</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HULAL-9</t>
+          <t>HULAL-8</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2107639</t>
+          <t>2427767</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2107639_5</t>
+          <t>2427767_18</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HULAL-10</t>
+          <t>HULAL-9</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2243457</t>
+          <t>2107639</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D125" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2243457_1</t>
+          <t>2107639_17</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HULAL-11</t>
+          <t>HULAL-10</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2183094</t>
+          <t>2243457</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2183094_47</t>
+          <t>2243457_20</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HULAL-12</t>
+          <t>HULAL-11</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2288670</t>
+          <t>2183094</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2288670_40</t>
+          <t>2183094_47</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HULAL-13</t>
+          <t>HULAL-12</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2357806</t>
+          <t>2288670</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D128" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2357806_12</t>
+          <t>2288670_58</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HULAL-14</t>
+          <t>HULAL-13</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2216498</t>
+          <t>2357806</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D129" t="n">
         <v>15</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2216498_7</t>
+          <t>2357806_12</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HULAL-15</t>
+          <t>HULAL-14</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2290594</t>
+          <t>2216498</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2290594_31</t>
+          <t>2216498_9</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HULAL-16</t>
+          <t>HULAL-15</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2233210</t>
+          <t>2290594</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D131" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2233210_30</t>
+          <t>2290594_31</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HULAL-17</t>
+          <t>HULAL-16</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2246482</t>
+          <t>2233210</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D132" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2246482_17</t>
+          <t>2233210_30</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HULAL-18</t>
+          <t>HULAL-17</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2064940</t>
+          <t>2246482</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2064940_7</t>
+          <t>2246482_17</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HULAL-19</t>
+          <t>HULAL-18</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2029578</t>
+          <t>2064940</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2029578_24</t>
+          <t>2064940_7</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HULAL-20</t>
+          <t>HULAL-19</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2049922</t>
+          <t>2029578</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D135" t="n">
         <v>18</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2049922_31</t>
+          <t>2029578_24</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HULAL-21</t>
+          <t>HULAL-20</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2289489</t>
+          <t>2049922</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2289489_30</t>
+          <t>2049922_31</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HULAL-22</t>
+          <t>HULAL-21</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2359559</t>
+          <t>2289489</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D137" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2359559_2</t>
+          <t>2289489_30</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HULAL-23</t>
+          <t>HULAL-22</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2486399</t>
+          <t>2359559</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D138" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2486399_5</t>
+          <t>2359559_3</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HULAL-24</t>
+          <t>HULAL-23</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2174585</t>
+          <t>2486399</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2174585_17</t>
+          <t>2486399_44</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HULAL-25</t>
+          <t>HULAL-24</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2625910</t>
+          <t>2174585</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2625910_37</t>
+          <t>2174585_17</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HULAL-26</t>
+          <t>HULAL-25</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2262005</t>
+          <t>2625910</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2262005_63</t>
+          <t>2625910_37</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HULAL-27</t>
+          <t>HULAL-26</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2008977</t>
+          <t>2262005</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2008977_28</t>
+          <t>2262005_42</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HULAL-28</t>
+          <t>HULAL-27</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2396753</t>
+          <t>2008977</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2396753_1</t>
+          <t>2008977_6</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HULAL-29</t>
+          <t>HULAL-28</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2314368</t>
+          <t>2396753</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D144" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2314368_15</t>
+          <t>2396753_4</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HULAL-30</t>
+          <t>HULAL-29</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>HULAL30IDModify</t>
+          <t>2314368</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D145" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>HULAL30IDModify_12</t>
+          <t>2314368_15</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HULAL-31</t>
+          <t>HULAL-30</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2279866</t>
+          <t>HULAL30IDModify</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D146" t="n">
         <v>15</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2279866_2</t>
+          <t>HULAL30IDModify_12</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HULAL-32</t>
+          <t>HULAL-31</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2410587</t>
+          <t>2279866</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D147" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2410587_8</t>
+          <t>2279866_6</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HULAL-33</t>
+          <t>HULAL-32</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2607295</t>
+          <t>2410587</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2607295_4</t>
+          <t>2410587_8</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HULAL-34</t>
+          <t>HULAL-33</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2344333</t>
+          <t>2607295</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D149" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2344333_40</t>
+          <t>2607295_4</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HULAL-35</t>
+          <t>HULAL-34</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+          <t>2344333</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>13</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2344333_26</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HULAL-36</t>
+          <t>HULAL-35</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2114679</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>18</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2114679_28</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HULAL-37</t>
+          <t>HULAL-36</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2102218</t>
+          <t>2114679</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2102218_29</t>
+          <t>2114679_28</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HULAL-38</t>
+          <t>HULAL-37</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2123606</t>
+          <t>2102218</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D153" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2123606_9</t>
+          <t>2102218_29</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HULAL-39</t>
+          <t>HULAL-38</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2528912</t>
+          <t>2123606</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D154" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2528912_29</t>
+          <t>2123606_42</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HULAL-40</t>
+          <t>HULAL-39</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2088688</t>
+          <t>2528912</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D155" t="n">
         <v>12</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2088688_4</t>
+          <t>2528912_29</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HULAL-41</t>
+          <t>HULAL-40</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2731223</t>
+          <t>2088688</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D156" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2731223_28</t>
+          <t>2088688_1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HULAL-42</t>
+          <t>HULAL-41</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2673186</t>
+          <t>2731223</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D157" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2673186_10</t>
+          <t>2731223_28</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HULAL-43</t>
+          <t>HULAL-42</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2273853</t>
+          <t>2673186</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2273853_6</t>
+          <t>2673186_10</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HULAL-44</t>
+          <t>HULAL-43</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2182871</t>
+          <t>2273853</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D159" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2182871_20</t>
+          <t>2273853_2</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HULAL-45</t>
+          <t>HULAL-44</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2119377</t>
+          <t>2182871</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D160" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2119377_12</t>
+          <t>2182871_21</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HULAL-46</t>
+          <t>HULAL-45</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2230647</t>
+          <t>2119377</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2230647_29</t>
+          <t>2119377_3</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HULAL-47</t>
+          <t>HULAL-46</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
+          <t>2230647</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>17</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2230647_15</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HULAL-48</t>
+          <t>HULAL-47</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2321995</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>5</v>
-      </c>
-      <c r="D163" t="n">
-        <v>12</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>2321995_28</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HULAL-49</t>
+          <t>HULAL-48</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2053180</t>
+          <t>2321995</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D164" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2053180_25</t>
+          <t>2321995_42</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HULAL-50</t>
+          <t>HULAL-49</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2168436</t>
+          <t>2053180</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D165" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2168436_31</t>
+          <t>2053180_25</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HULAL-51</t>
+          <t>HULAL-50</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2765503</t>
+          <t>2168436</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2765503_36</t>
+          <t>2168436_4</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HULAL-52</t>
+          <t>HULAL-51</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2607532</t>
+          <t>2765503</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D167" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2607532_3</t>
+          <t>2765503_36</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HULAL-53</t>
+          <t>HULAL-52</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2318112</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
+          <t>2607532</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>20</v>
+      </c>
+      <c r="D168" t="n">
+        <v>17</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2607532_3</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>HULAL-54</t>
+          <t>HULAL-53</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2321995</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>8</v>
-      </c>
-      <c r="D169" t="n">
-        <v>12</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>2321995_28</t>
-        </is>
-      </c>
+          <t>2318112</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HULAL-55</t>
+          <t>HULAL-54</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2854623</t>
+          <t>2321995</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2854623_9</t>
+          <t>2321995_42</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HULAL-56</t>
+          <t>HULAL-55</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2642759</t>
+          <t>2854623</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D171" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2642759_12</t>
+          <t>2854623_9</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HULAL-57</t>
+          <t>HULAL-56</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2062611</t>
+          <t>2642759</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D172" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2062611_42</t>
+          <t>2642759_12</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HULAL-58</t>
+          <t>HULAL-57</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2765503</t>
+          <t>2062611</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D173" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2765503_36</t>
+          <t>2062611_42</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HULAL-59</t>
+          <t>HULAL-58</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2223317</t>
+          <t>2765503</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2223317_22</t>
+          <t>2765503_36</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>HULAL-60</t>
+          <t>HULAL-59</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2313159</t>
+          <t>2223317</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2313159_6</t>
+          <t>2223317_22</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HULAL-61</t>
+          <t>HULAL-60</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2079248</t>
+          <t>2313159</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D176" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2079248_1</t>
+          <t>2313159_6</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HULAL-62</t>
+          <t>HULAL-61</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2065522</t>
+          <t>2079248</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D177" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2065522_15</t>
+          <t>2079248_1</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HULAL-63</t>
+          <t>HULAL-62</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2431691</t>
+          <t>2065522</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D178" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2431691_39</t>
+          <t>2065522_16</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>HULAL-64</t>
+          <t>HULAL-63</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2232469</t>
+          <t>2431691</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D179" t="n">
         <v>11</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2232469_29</t>
+          <t>2431691_34</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HULAL-65</t>
+          <t>HULAL-64</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2330532</t>
+          <t>2232469</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>27</v>
-      </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2232469_29</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>HULAL-66</t>
+          <t>HULAL-65</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2403137</t>
+          <t>2330532</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>8</v>
-      </c>
-      <c r="D181" t="n">
-        <v>9</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>2403137_11</t>
-        </is>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>HULAL-67</t>
+          <t>HULAL-66</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2644334</t>
+          <t>2403137</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2644334_10</t>
+          <t>2403137_16</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HULAL-68</t>
+          <t>HULAL-67</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2001777</t>
+          <t>2644334</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>10</v>
       </c>
       <c r="D183" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2001777_32</t>
+          <t>2644334_17</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HULAL-69</t>
+          <t>HULAL-68</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2269616</t>
+          <t>2001777</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>10</v>
       </c>
       <c r="D184" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2269616_26</t>
+          <t>2001777_32</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HULAL-70</t>
+          <t>HULAL-69</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2122392</t>
+          <t>2269616</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>10</v>
       </c>
       <c r="D185" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2122392_37</t>
+          <t>2269616_26</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>HULAL-71</t>
+          <t>HULAL-70</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2358928</t>
+          <t>2122392</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D186" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2358928_1</t>
+          <t>2122392_46</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HULAL-72</t>
+          <t>HULAL-71</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2617461</t>
+          <t>2358928</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D187" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2617461_16</t>
+          <t>2358928_5</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HULAL-73</t>
+          <t>HULAL-72</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2596955</t>
+          <t>2617461</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D188" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2596955_1</t>
+          <t>2617461_16</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HULAL-74</t>
+          <t>HULAL-73</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2119459</t>
+          <t>2596955</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2119459_11</t>
+          <t>2596955_1</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>HULAL-75</t>
+          <t>HULAL-74</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2183532</t>
+          <t>2119459</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2183532_40</t>
+          <t>2119459_5</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>HULAL-76</t>
+          <t>HULAL-75</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2322665</t>
+          <t>2183532</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D191" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2322665_13</t>
+          <t>2183532_43</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>HULAL-77</t>
+          <t>HULAL-76</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2239374</t>
+          <t>2322665</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2239374_3</t>
+          <t>2322665_1</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>HULAL-78</t>
+          <t>HULAL-77</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2139928</t>
+          <t>2239374</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>7</v>
       </c>
       <c r="D193" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2139928_5</t>
+          <t>2239374_1</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>HULAL-79</t>
+          <t>HULAL-78</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2507989</t>
+          <t>2139928</t>
         </is>
       </c>
       <c r="C194" t="n">
+        <v>7</v>
+      </c>
+      <c r="D194" t="n">
         <v>10</v>
       </c>
-      <c r="D194" t="n">
-        <v>13</v>
-      </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2507989_7</t>
+          <t>2139928_1</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HULFV-1</t>
+          <t>HULAL-79</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+          <t>2507989</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>10</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2507989_7</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HULFV-2</t>
+          <t>HULFV-1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4878,351 +4886,351 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HULFV-3</t>
+          <t>HULFV-2</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1994059</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>23</v>
-      </c>
-      <c r="D197" t="n">
-        <v>20</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>1994059_8</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>HULFV-4</t>
+          <t>HULFV-3</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2298922</t>
+          <t>1994059</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D198" t="n">
         <v>19</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2298922_8</t>
+          <t>1994059_8</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>HULFV-5</t>
+          <t>HULFV-4</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2288822</t>
+          <t>2298922</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D199" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2288822_11</t>
+          <t>2298922_8</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HULFV-6</t>
+          <t>HULFV-5</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
+          <t>2288822</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>7</v>
+      </c>
+      <c r="D200" t="n">
+        <v>7</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2288822_11</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HULFV-7</t>
+          <t>HULFV-6</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2184812</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>22</v>
-      </c>
-      <c r="D201" t="n">
-        <v>24</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>2184812_1</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>HULFV-8</t>
+          <t>HULFV-7</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>27187817</t>
+          <t>2184812</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D202" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>27187817_8</t>
+          <t>2184812_1</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>HULFV-9</t>
+          <t>HULFV-8</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>3101013</t>
+          <t>27187817</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D203" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>3101013_13</t>
+          <t>27187817_9</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>HULFV-10</t>
+          <t>HULFV-9</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>3299923</t>
+          <t>3101013</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D204" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>3299923_24</t>
+          <t>3101013_13</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>HULFV-11</t>
+          <t>HULFV-10</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>3100013</t>
+          <t>3299923</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D205" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>3100013_2</t>
+          <t>3299923_7</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>HULFV-12</t>
+          <t>HULFV-11</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>19480722647</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
+          <t>3100013</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>21</v>
+      </c>
+      <c r="D206" t="n">
+        <v>16</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>3100013_6</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>HULFV-13</t>
+          <t>HULFV-12</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>19710823660</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>16</v>
-      </c>
-      <c r="D207" t="n">
-        <v>20</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>19710823660_4</t>
-        </is>
-      </c>
+          <t>19480722647</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>HULFV-14</t>
+          <t>HULFV-13</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>19531219115</t>
+          <t>19710823660</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D208" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>19531219115_22</t>
+          <t>19710823660_15</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>HULFV-15</t>
+          <t>HULFV-14</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>19550823854</t>
+          <t>19531219115</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D209" t="n">
         <v>12</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>19550823854_11</t>
+          <t>19531219115_22</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>HULFV-16</t>
+          <t>HULFV-15</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>19670725985</t>
+          <t>19550823854</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>19670725985_8</t>
+          <t>19550823854_2</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HULFV-17</t>
+          <t>HULFV-16</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>19460827885</t>
+          <t>19670725985</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>19460827885_7</t>
+          <t>19670725985_8</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HULFV-18</t>
+          <t>HULFV-17</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
+          <t>19460827885</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>11</v>
+      </c>
+      <c r="D212" t="n">
+        <v>12</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>19460827885_7</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HULFV-19</t>
+          <t>HULFV-18</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5237,7 +5245,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>HULFV-20</t>
+          <t>HULFV-19</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5252,7 +5260,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>HULFV-21</t>
+          <t>HULFV-20</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5267,7 +5275,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>HULFV-22</t>
+          <t>HULFV-21</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5282,7 +5290,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>HULFV-23</t>
+          <t>HULFV-22</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5297,7 +5305,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>HULFV-24</t>
+          <t>HULFV-23</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5312,2242 +5320,2242 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>HUPHM-1</t>
+          <t>HULFV-24</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1354354214</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>28</v>
-      </c>
-      <c r="D219" t="n">
-        <v>20</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>1354354214_4</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HUPHM-2</t>
+          <t>HUPHM-1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>1096714736</t>
+          <t>1354354214</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D220" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>1096714736_8</t>
+          <t>1354354214_6</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>HUPHM-3</t>
+          <t>HUPHM-2</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>1531305452</t>
+          <t>1096714736</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D221" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>1531305452_4</t>
+          <t>1096714736_8</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>HUPHM-4</t>
+          <t>HUPHM-3</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>1317770056</t>
+          <t>1531305452</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D222" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>1317770056_4</t>
+          <t>1531305452_4</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>HUPHM-5</t>
+          <t>HUPHM-4</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>1612054518</t>
+          <t>1317770056</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D223" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>1612054518_2</t>
+          <t>1317770056_4</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>HUPHM-6</t>
+          <t>HUPHM-5</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>1110296554</t>
+          <t>1612054518</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D224" t="n">
         <v>18</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>1110296554_5</t>
+          <t>1612054518_3</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>HUPHM-7</t>
+          <t>HUPHM-6</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>3389194</t>
+          <t>1110296554</t>
         </is>
       </c>
       <c r="C225" t="n">
+        <v>20</v>
+      </c>
+      <c r="D225" t="n">
         <v>17</v>
       </c>
-      <c r="D225" t="n">
-        <v>14</v>
-      </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>3389194_15</t>
+          <t>1110296554_5</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>HUPHM-8</t>
+          <t>HUPHM-7</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>1553799146</t>
+          <t>3389194</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D226" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>1553799146_6</t>
+          <t>3389194_10</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>HUPHM-9</t>
+          <t>HUPHM-8</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>1531867547</t>
+          <t>1553799146</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D227" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1531867547_12</t>
+          <t>1553799146_5</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>HUPHM-10</t>
+          <t>HUPHM-9</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>1316287269</t>
+          <t>1531867547</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D228" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>1316287269_21</t>
+          <t>1531867547_12</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>HUPHM-11</t>
+          <t>HUPHM-10</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1553400941</t>
+          <t>1316287269</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D229" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>1553400941_5</t>
+          <t>1316287269_21</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>HUPHM-12</t>
+          <t>HUPHM-11</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>1597028107</t>
+          <t>1553400941</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D230" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>1597028107_32</t>
+          <t>1553400941_6</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>HUPHM-13</t>
+          <t>HUPHM-12</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>1447021445</t>
+          <t>1597028107</t>
         </is>
       </c>
       <c r="C231" t="n">
         <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>1447021445_17</t>
+          <t>1597028107_32</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>HUPHM-14</t>
+          <t>HUPHM-13</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>1167554139</t>
+          <t>1447021445</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D232" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>1167554139_5</t>
+          <t>1447021445_17</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>HUPHM-15</t>
+          <t>HUPHM-14</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>5067841</t>
+          <t>1167554139</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D233" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>5067841_38</t>
+          <t>1167554139_5</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>HUPHM-16</t>
+          <t>HUPHM-15</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>1374092603</t>
+          <t>5067841</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D234" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>1374092603_4</t>
+          <t>5067841_34</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>HUPHM-17</t>
+          <t>HUPHM-16</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>878538</t>
+          <t>1374092603</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D235" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>878538_17</t>
+          <t>1374092603_8</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>HUPHM-18</t>
+          <t>HUPHM-17</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>5436085</t>
+          <t>878538</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D236" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>5436085_12</t>
+          <t>878538_17</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>HUPHM-19</t>
+          <t>HUPHM-18</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>1145968508</t>
+          <t>5436085</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D237" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>1145968508_10</t>
+          <t>5436085_20</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>HUPHM-20</t>
+          <t>HUPHM-19</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>1553251195</t>
+          <t>1145968508</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D238" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>1553251195_2</t>
+          <t>1145968508_6</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>HUPHM-21</t>
+          <t>HUPHM-20</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1244701976</t>
+          <t>1553251195</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>1244701976_10</t>
+          <t>1553251195_7</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>HUPHM-22</t>
+          <t>HUPHM-21</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>1491110369</t>
+          <t>1244701976</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D240" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>1491110369_5</t>
+          <t>1244701976_10</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>HUPHM-23</t>
+          <t>HUPHM-22</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1849532241</t>
+          <t>1491110369</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D241" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>1849532241_15</t>
+          <t>1491110369_5</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>HUPHM-24</t>
+          <t>HUPHM-23</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1144938688</t>
+          <t>1849532241</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D242" t="n">
         <v>12</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>1144938688_24</t>
+          <t>1849532241_8</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>HUPHM-25</t>
+          <t>HUPHM-24</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>1513141493</t>
+          <t>1144938688</t>
         </is>
       </c>
       <c r="C243" t="n">
+        <v>8</v>
+      </c>
+      <c r="D243" t="n">
         <v>13</v>
       </c>
-      <c r="D243" t="n">
-        <v>11</v>
-      </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>1513141493_9</t>
+          <t>1144938688_10</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>HUPHM-26</t>
+          <t>HUPHM-25</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>1470913252</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
+          <t>1513141493</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>13</v>
+      </c>
+      <c r="D244" t="n">
+        <v>9</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>1513141493_11</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>HUPHM-27</t>
+          <t>HUPHM-26</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>1389102240</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v>6</v>
-      </c>
-      <c r="D245" t="n">
-        <v>13</v>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>1389102240_8</t>
-        </is>
-      </c>
+          <t>1470913252</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>HUPHM-28</t>
+          <t>HUPHM-27</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>1576287079</t>
+          <t>1389102240</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>1576287079_10</t>
+          <t>1389102240_8</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>HUPHM-29</t>
+          <t>HUPHM-28</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>1437929717</t>
+          <t>1576287079</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D247" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>1437929717_5</t>
+          <t>1576287079_10</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>HUPHM-30</t>
+          <t>HUPHM-29</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>1266670759</t>
+          <t>1437929717</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D248" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>1266670759_5</t>
+          <t>1437929717_5</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>HUPHM-31</t>
+          <t>HUPHM-30</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>1784132114</t>
+          <t>1266670759</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D249" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>1784132114_8</t>
+          <t>1266670759_5</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>HUPHM-32</t>
+          <t>HUPHM-31</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>1025819254</t>
+          <t>1784132114</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D250" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>1025819254_3</t>
+          <t>1784132114_8</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>HUPHM-33</t>
+          <t>HUPHM-32</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2039537457</t>
+          <t>1025819254</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D251" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>2039537457_7</t>
+          <t>1025819254_3</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>HUPHM-34</t>
+          <t>HUPHM-33</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>1553813900</t>
+          <t>2039537457</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D252" t="n">
         <v>11</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>1553813900_7</t>
+          <t>2039537457_6</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>HUPHM-35</t>
+          <t>HUPHM-34</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>HUPHM_35422</t>
+          <t>1553813900</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D253" t="n">
         <v>11</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>HUPHM_35422_4</t>
+          <t>1553813900_8</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>HUPHM-36</t>
+          <t>HUPHM-35</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
-      <c r="E254" t="inlineStr"/>
+          <t>HUPHM_35422</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>10</v>
+      </c>
+      <c r="D254" t="n">
+        <v>15</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>HUPHM_35422_3</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>HUPHM-37</t>
+          <t>HUPHM-36</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>HUPHM_37333</t>
-        </is>
-      </c>
-      <c r="C255" t="n">
-        <v>8</v>
-      </c>
-      <c r="D255" t="n">
-        <v>6</v>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>HUPHM_37333_8</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>HUPHM-38</t>
+          <t>HUPHM-37</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>HUPHM_38434</t>
+          <t>HUPHM_37333</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D256" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>HUPHM_38434_12</t>
+          <t>HUPHM_37333_9</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>HUPHM-39</t>
+          <t>HUPHM-38</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>HUPHM_39493</t>
+          <t>HUPHM_38434</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D257" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>HUPHM_39493_3</t>
+          <t>HUPHM_38434_12</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>HUPHM-40</t>
+          <t>HUPHM-39</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>HUPHM_40404</t>
+          <t>HUPHM_39493</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D258" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>HUPHM_40404_18</t>
+          <t>HUPHM_39493_7</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>HUPHM-41</t>
+          <t>HUPHM-40</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>HUPHM_41421</t>
+          <t>HUPHM_40404</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D259" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>HUPHM_41421_19</t>
+          <t>HUPHM_40404_18</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>HUPHM-42</t>
+          <t>HUPHM-41</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>HUPHM_42221</t>
+          <t>HUPHM_41421</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D260" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>HUPHM_42221_5</t>
+          <t>HUPHM_41421_11</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>HUPHM-43</t>
+          <t>HUPHM-42</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>HUPHM_43321</t>
+          <t>HUPHM_42221</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D261" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>HUPHM_43321_10</t>
+          <t>HUPHM_42221_5</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>HUPHM-44</t>
+          <t>HUPHM-43</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>HUPHM_44121</t>
+          <t>HUPHM_43321</t>
         </is>
       </c>
       <c r="C262" t="n">
+        <v>10</v>
+      </c>
+      <c r="D262" t="n">
         <v>11</v>
       </c>
-      <c r="D262" t="n">
-        <v>18</v>
-      </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>HUPHM_44121_29</t>
+          <t>HUPHM_43321_10</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>HUPHM-45</t>
+          <t>HUPHM-44</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>HUPHM_45525</t>
+          <t>HUPHM_44121</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>HUPHM_45525_14</t>
+          <t>HUPHM_44121_38</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>HUPHM-46</t>
+          <t>HUPHM-45</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>HUPHM_46265</t>
+          <t>HUPHM_45525</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D264" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>HUPHM_46265_54</t>
+          <t>HUPHM_45525_14</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>HUPHM-47</t>
+          <t>HUPHM-46</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>HUPHM_47167</t>
+          <t>HUPHM_46265</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D265" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>HUPHM_47167_9</t>
+          <t>HUPHM_46265_40</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>HUPHM-48</t>
+          <t>HUPHM-47</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>HUPHM_48228</t>
+          <t>HUPHM_47167</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D266" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>HUPHM_48228_12</t>
+          <t>HUPHM_47167_9</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>HUPHM-49</t>
+          <t>HUPHM-48</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>HUPHM_49119</t>
+          <t>HUPHM_48228</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D267" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>HUPHM_49119_7</t>
+          <t>HUPHM_48228_12</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>HUPHM-50</t>
+          <t>HUPHM-49</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>HUPHM_50055</t>
+          <t>HUPHM_49119</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D268" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>HUPHM_50055_1</t>
+          <t>HUPHM_49119_7</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>HURSC-1</t>
+          <t>HUPHM-50</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>PH 591-45</t>
+          <t>HUPHM_50055</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D269" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>PH 591-45_10</t>
+          <t>HUPHM_50055_1</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>HURSC-2</t>
+          <t>HURSC-1</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SC 241-8</t>
+          <t>PH 591-45</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D270" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>SC 241-8_6</t>
+          <t>PH 591-45_10</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>HURSC-3</t>
+          <t>HURSC-2</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SC 235-8</t>
+          <t>SC 241-8</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D271" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>SC 235-8_1</t>
+          <t>SC 241-8_6</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>HURSC-4</t>
+          <t>HURSC-3</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>PH 536-1</t>
+          <t>SC 235-8</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>PH 536-1_7</t>
+          <t>SC 235-8_1</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>HURSC-5</t>
+          <t>HURSC-4</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>PH 511-8</t>
+          <t>PH 536-1</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D273" t="n">
         <v>16</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>PH 511-8_8</t>
+          <t>PH 536-1_11</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>HURSC-6</t>
+          <t>HURSC-5</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>PH 662-64</t>
+          <t>PH 511-8</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D274" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>PH 662-64_5</t>
+          <t>PH 511-8_8</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>HURSC-7</t>
+          <t>HURSC-6</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PH 658-56</t>
+          <t>PH 662-64</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D275" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>PH 658-56_7</t>
+          <t>PH 662-64_8</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>HURSC-8</t>
+          <t>HURSC-7</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PH 368-49</t>
+          <t>PH 658-56</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D276" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>PH 368-49_10</t>
+          <t>PH 658-56_7</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>HURSC-9</t>
+          <t>HURSC-8</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>PH 473-17</t>
+          <t>PH 368-49</t>
         </is>
       </c>
       <c r="C277" t="n">
+        <v>8</v>
+      </c>
+      <c r="D277" t="n">
         <v>9</v>
       </c>
-      <c r="D277" t="n">
-        <v>14</v>
-      </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>PH 473-17_1</t>
+          <t>PH 368-49_12</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>HURSC-10</t>
+          <t>HURSC-9</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>PH 483-2</t>
+          <t>PH 473-17</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D278" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>PH 483-2_2</t>
+          <t>PH 473-17_1</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>HURSC-11</t>
+          <t>HURSC-10</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>PH 668-30</t>
+          <t>PH 483-2</t>
         </is>
       </c>
       <c r="C279" t="n">
+        <v>8</v>
+      </c>
+      <c r="D279" t="n">
         <v>12</v>
       </c>
-      <c r="D279" t="n">
-        <v>18</v>
-      </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>PH 668-30_6</t>
+          <t>PH 483-2_6</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>HURSC-12</t>
+          <t>HURSC-11</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>AN0197572833</t>
+          <t>PH 668-30</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D280" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>AN0197572833_2</t>
+          <t>PH 668-30_6</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>HURSC-13</t>
+          <t>HURSC-12</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>PH 600-65</t>
+          <t>AN0197572833</t>
         </is>
       </c>
       <c r="C281" t="n">
+        <v>7</v>
+      </c>
+      <c r="D281" t="n">
         <v>10</v>
       </c>
-      <c r="D281" t="n">
-        <v>20</v>
-      </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>PH 600-65_6</t>
+          <t>AN0197572833_2</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>HURSC-14</t>
+          <t>HURSC-13</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>PH 482-53</t>
+          <t>PH 600-65</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D282" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>PH 482-53_14</t>
+          <t>PH 600-65_1</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>HURSC-15</t>
+          <t>HURSC-14</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>PH 484-45</t>
+          <t>PH 482-53</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D283" t="n">
         <v>16</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>PH 484-45_5</t>
+          <t>PH 482-53_6</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>HURSC-16</t>
+          <t>HURSC-15</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr"/>
-      <c r="E284" t="inlineStr"/>
+          <t>PH 484-45</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>16</v>
+      </c>
+      <c r="D284" t="n">
+        <v>17</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>PH 484-45_10</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>HURSC-17</t>
+          <t>HURSC-16</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>PH 395-62</t>
-        </is>
-      </c>
-      <c r="C285" t="n">
-        <v>10</v>
-      </c>
-      <c r="D285" t="n">
-        <v>8</v>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>PH 395-62_3</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>HURSC-18</t>
+          <t>HURSC-17</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>PH 394-23</t>
+          <t>PH 395-62</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D286" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>PH 394-23_2</t>
+          <t>PH 395-62_3</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>HURSC-19</t>
+          <t>HURSC-18</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>PH 387-60</t>
+          <t>PH 394-23</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D287" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>PH 387-60_5</t>
+          <t>PH 394-23_2</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>HURSC-20</t>
+          <t>HURSC-19</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>PH 796-17</t>
+          <t>PH 387-60</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D288" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>PH 796-17_12</t>
+          <t>PH 387-60_5</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>HURSC-21</t>
+          <t>HURSC-20</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>EPIQ4315</t>
+          <t>PH 796-17</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D289" t="n">
         <v>17</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>EPIQ4315_1</t>
+          <t>PH 796-17_12</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>HURSC-22</t>
+          <t>HURSC-21</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>EPIQ3537</t>
+          <t>EPIQ4315</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D290" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>EPIQ3537_8</t>
+          <t>EPIQ4315_2</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>HURSC-23</t>
+          <t>HURSC-22</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>EPIZ3512</t>
+          <t>EPIQ3537</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D291" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>EPIZ3512_10</t>
+          <t>EPIQ3537_8</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>HURSC-24</t>
+          <t>HURSC-23</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>EPIQ 32-16</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr"/>
+          <t>EPIZ3512</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>7</v>
+      </c>
+      <c r="D292" t="n">
+        <v>11</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>EPIZ3512_12</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>HURSC-25</t>
+          <t>HURSC-24</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>SC 372-36</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>22</v>
-      </c>
-      <c r="D293" t="n">
-        <v>15</v>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>SC 372-36_29</t>
-        </is>
-      </c>
+          <t>EPIQ 32-16</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>HURSC-26</t>
+          <t>HURSC-25</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>SC 394-28</t>
+          <t>SC 372-36</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D294" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SC 394-28_14</t>
+          <t>SC 372-36_29</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>HURSC-27</t>
+          <t>HURSC-26</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>AN0188357732</t>
+          <t>SC 394-28</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D295" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>AN0188357732_1</t>
+          <t>SC 394-28_3</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>HURSC-28</t>
+          <t>HURSC-27</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>EPIQ 16-11</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr"/>
-      <c r="E296" t="inlineStr"/>
+          <t>AN0188357732</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>6</v>
+      </c>
+      <c r="D296" t="n">
+        <v>9</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>AN0188357732_8</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>HURSC-29</t>
+          <t>HURSC-28</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>AN0201948341</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v>10</v>
-      </c>
-      <c r="D297" t="n">
-        <v>11</v>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>AN0201948341_8</t>
-        </is>
-      </c>
+          <t>EPIQ 16-11</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>HURSC-30</t>
+          <t>HURSC-29</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr"/>
+          <t>AN0201948341</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>10</v>
+      </c>
+      <c r="D298" t="n">
+        <v>9</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>AN0201948341_7</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>HURSC-31</t>
+          <t>HURSC-30</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>EPIQ62</t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v>15</v>
-      </c>
-      <c r="D299" t="n">
-        <v>16</v>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>EPIQ62_1</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>HURSC-32</t>
+          <t>HURSC-31</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>SC 352-3</t>
+          <t>EPIQ62</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D300" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>SC 352-3_59</t>
+          <t>EPIQ62_1</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>HURSC-33</t>
+          <t>HURSC-32</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>PH 697-15</t>
+          <t>SC 352-3</t>
         </is>
       </c>
       <c r="C301" t="n">
         <v>10</v>
       </c>
       <c r="D301" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>PH 697-15_13</t>
+          <t>SC 352-3_59</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>HURSC-34</t>
+          <t>HURSC-33</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>PH 684-6</t>
+          <t>PH 697-15</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D302" t="n">
         <v>15</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>PH 684-6_5</t>
+          <t>PH 697-15_13</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>HURSC-35</t>
+          <t>HURSC-34</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PH 683-20</t>
+          <t>PH 684-6</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D303" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>PH 683-20_18</t>
+          <t>PH 684-6_1</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>HURSC-36</t>
+          <t>HURSC-35</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>PH 676-20</t>
+          <t>PH 683-20</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D304" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>PH 676-20_10</t>
+          <t>PH 683-20_21</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>HURSC-37</t>
+          <t>HURSC-36</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PH 671-16</t>
+          <t>PH 676-20</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D305" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>PH 671-16_20</t>
+          <t>PH 676-20_11</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>HURSC-38</t>
+          <t>HURSC-37</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>SC 283-38</t>
+          <t>PH 671-16</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D306" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>SC 283-38_1</t>
+          <t>PH 671-16_20</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>HURSC-39</t>
+          <t>HURSC-38</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>PH 667-19</t>
+          <t>SC 283-38</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D307" t="n">
         <v>14</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>PH 667-19_19</t>
+          <t>SC 283-38_1</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>HURSC-40</t>
+          <t>HURSC-39</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>EPIQ 301-21</t>
+          <t>PH 667-19</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D308" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>EPIQ 301-21_2</t>
+          <t>PH 667-19_11</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>HURSC-41</t>
+          <t>HURSC-40</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>EPIQ 246-22</t>
+          <t>EPIQ 301-21</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D309" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>EPIQ 246-22_2</t>
+          <t>EPIQ 301-21_2</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>HURSC-42</t>
+          <t>HURSC-41</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>EPIQ 243-15</t>
+          <t>EPIQ 246-22</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D310" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>EPIQ 243-15_8</t>
+          <t>EPIQ 246-22_2</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>HURSC-43</t>
+          <t>HURSC-42</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>EPIQ 139-23</t>
+          <t>EPIQ 243-15</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D311" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>EPIQ 139-23_4</t>
+          <t>EPIQ 243-15_8</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>HURSC-44</t>
+          <t>HURSC-43</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>EPIQ 45-5</t>
+          <t>EPIQ 139-23</t>
         </is>
       </c>
       <c r="C312" t="n">
         <v>10</v>
       </c>
       <c r="D312" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>EPIQ 45-5_2</t>
+          <t>EPIQ 139-23_6</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>HURSC-45</t>
+          <t>HURSC-44</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>EPIQ 27-1</t>
+          <t>EPIQ 45-5</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D313" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>EPIQ 27-1_3</t>
+          <t>EPIQ 45-5_1</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>HURSC-46</t>
+          <t>HURSC-45</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>EPIQ 17-4</t>
+          <t>EPIQ 27-1</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D314" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>EPIQ 17-4_10</t>
+          <t>EPIQ 27-1_4</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>HURSC-47</t>
+          <t>HURSC-46</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>PH 380-4</t>
+          <t>EPIQ 17-4</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D315" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>PH 380-4_7</t>
+          <t>EPIQ 17-4_10</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>HCUVA-1</t>
+          <t>HURSC-47</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr"/>
-      <c r="E316" t="inlineStr"/>
+          <t>PH 380-4</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>8</v>
+      </c>
+      <c r="D316" t="n">
+        <v>15</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>PH 380-4_10</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>HCUVA-2</t>
+          <t>HCUVA-1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>716372</t>
-        </is>
-      </c>
-      <c r="C317" t="n">
-        <v>37</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>HCUVA-3</t>
+          <t>HCUVA-2</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>713606</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr"/>
+          <t>716372</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>37</v>
+      </c>
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>HCUVA-4</t>
+          <t>HCUVA-3</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>407709</t>
+          <t>713606</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -7557,56 +7565,54 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>HCUVA-5</t>
+          <t>HCUVA-4</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>224454</t>
-        </is>
-      </c>
-      <c r="C320" t="n">
-        <v>18</v>
-      </c>
-      <c r="D320" t="n">
-        <v>15</v>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>224454_1</t>
-        </is>
-      </c>
+          <t>407709</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>HCUVA-6</t>
+          <t>HCUVA-5</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>233824</t>
+          <t>224454</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>11</v>
-      </c>
-      <c r="D321" t="inlineStr"/>
-      <c r="E321" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="D321" t="n">
+        <v>25</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>224454_12</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>HCUVA-7</t>
+          <t>HCUVA-6</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>⁠28561</t>
+          <t>233824</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr"/>
@@ -7614,16 +7620,16 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>HCUVA-8</t>
+          <t>HCUVA-7</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>718339</t>
+          <t>⁠28561</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr"/>
@@ -7631,16 +7637,16 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>HCUVA-9</t>
+          <t>HCUVA-8</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>713500</t>
+          <t>718339</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr"/>
@@ -7648,200 +7654,202 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>HCUVA-10</t>
+          <t>HCUVA-9</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>718749</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr"/>
+          <t>713500</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>20</v>
+      </c>
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>HCUVA-11</t>
+          <t>HCUVA-10</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>718753</t>
-        </is>
-      </c>
-      <c r="C326" t="n">
-        <v>20</v>
-      </c>
+          <t>718749</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>HCUVA-12</t>
+          <t>HCUVA-11</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>717561</t>
+          <t>718753</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>6</v>
-      </c>
-      <c r="D327" t="n">
-        <v>10</v>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>717561_46</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>HCUVA-13</t>
+          <t>HCUVA-12</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>519696</t>
+          <t>717561</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>519696_30</t>
+          <t>717561_1</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>HCUVA-14</t>
+          <t>HCUVA-13</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>55178</t>
+          <t>519696</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>4</v>
-      </c>
-      <c r="D329" t="inlineStr"/>
-      <c r="E329" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="D329" t="n">
+        <v>20</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>519696_32</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>HCUVA-15</t>
+          <t>HCUVA-14</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>719992</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr"/>
+          <t>55178</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>4</v>
+      </c>
       <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>HCUVA-16</t>
+          <t>HCUVA-15</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>636308</t>
-        </is>
-      </c>
-      <c r="C331" t="n">
-        <v>18</v>
-      </c>
-      <c r="D331" t="n">
-        <v>6</v>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>636308_6</t>
-        </is>
-      </c>
+          <t>719992</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>HCUVA-17</t>
+          <t>HCUVA-16</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>101444</t>
+          <t>636308</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D332" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>101444_13</t>
+          <t>636308_6</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>HCUVA-18</t>
+          <t>HCUVA-17</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>629002</t>
+          <t>101444</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>11</v>
-      </c>
-      <c r="D333" t="inlineStr"/>
-      <c r="E333" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="D333" t="n">
+        <v>16</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>101444_6</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>HCUVA-19</t>
+          <t>HCUVA-18</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>659523</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
+          <t>629002</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>11</v>
+      </c>
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>HCUVA-20</t>
+          <t>HCUVA-19</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>721580</t>
+          <t>659523</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -7851,12 +7859,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>HCUVA-20</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>721580</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -9242,6 +9250,21 @@
       <c r="C428" t="inlineStr"/>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/save_pd.xlsx
+++ b/data/save_pd.xlsx
@@ -475,11 +475,11 @@
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1226645_22</t>
+          <t>1226645_11</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,11 +521,11 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A9X7RUCS</t>
+          <t>A9X7RTJG</t>
         </is>
       </c>
     </row>
@@ -544,11 +544,11 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2574432_34</t>
+          <t>2574432_29</t>
         </is>
       </c>
     </row>
@@ -567,11 +567,11 @@
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2638996_3</t>
+          <t>2638996_2</t>
         </is>
       </c>
     </row>
@@ -590,11 +590,11 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2718947_1</t>
+          <t>2718947_2</t>
         </is>
       </c>
     </row>
@@ -613,11 +613,11 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1734885_3</t>
+          <t>1734885_1</t>
         </is>
       </c>
     </row>
@@ -659,11 +659,11 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1758093_7</t>
+          <t>1758093_29</t>
         </is>
       </c>
     </row>
@@ -682,11 +682,11 @@
         <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2419082_2</t>
+          <t>2419082_3</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -728,11 +728,11 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1855739_2</t>
+          <t>1855739_3</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2454406_5</t>
+          <t>2454406_1</t>
         </is>
       </c>
     </row>
@@ -774,11 +774,11 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1572014_3</t>
+          <t>1572014_2</t>
         </is>
       </c>
     </row>
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2400470_3</t>
+          <t>2400470_2</t>
         </is>
       </c>
     </row>
@@ -820,11 +820,11 @@
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>819229_1</t>
+          <t>819229_2</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -912,11 +912,11 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2739127_12</t>
+          <t>2739127_10</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -958,11 +958,11 @@
         <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1740014_8</t>
+          <t>1740014_33</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1088,11 +1088,11 @@
         <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>560742_3</t>
+          <t>560742_1</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2575725_1</t>
+          <t>2575725_4</t>
         </is>
       </c>
     </row>
@@ -1172,11 +1172,11 @@
         <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2511968_3</t>
+          <t>2511968_1</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2564063_2</t>
+          <t>2564063_1</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>704042_1</t>
+          <t>704042_5</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
         <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1356,11 +1356,11 @@
         <v>8</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>717292_1</t>
+          <t>717292_2</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>481131_3</t>
+          <t>481131_1</t>
         </is>
       </c>
     </row>
@@ -1425,11 +1425,11 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>762372_4</t>
+          <t>762372_3</t>
         </is>
       </c>
     </row>
@@ -1448,11 +1448,11 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1279866_3</t>
+          <t>1279866_2</t>
         </is>
       </c>
     </row>
@@ -1494,11 +1494,11 @@
         <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2498702_23</t>
+          <t>2498702_25</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>261969_6</t>
+          <t>261969_5</t>
         </is>
       </c>
     </row>
@@ -1586,11 +1586,11 @@
         <v>43</v>
       </c>
       <c r="D51" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>165368_17</t>
+          <t>165368_16</t>
         </is>
       </c>
     </row>
@@ -1609,11 +1609,11 @@
         <v>37</v>
       </c>
       <c r="D52" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HCSC51_35</t>
+          <t>HCSC51_34</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
         <v>24</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1655,11 +1655,11 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>HCSC_53_6</t>
+          <t>HCSC_53_17</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
         <v>26</v>
       </c>
       <c r="D55" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1724,11 +1724,11 @@
         <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2773991_3</t>
+          <t>2773991_15</t>
         </is>
       </c>
     </row>
@@ -1747,11 +1747,11 @@
         <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1000_2</t>
+          <t>1000_4</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1003_11</t>
+          <t>1003_9</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1885,11 +1885,11 @@
         <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>20600121_9</t>
+          <t>20600121_6</t>
         </is>
       </c>
     </row>
@@ -1908,11 +1908,11 @@
         <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14869633_92</t>
+          <t>14869633_99</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>21</v>
       </c>
       <c r="D67" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>9.4</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="D69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2023,11 +2023,11 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10248043_31</t>
+          <t>10248043_11</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
         <v>8</v>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2115,11 +2115,11 @@
         <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>568081_2</t>
+          <t>568081_6</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
         <v>16</v>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2161,11 +2161,11 @@
         <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>483418_15</t>
+          <t>483418_10</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="D78" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2230,11 +2230,11 @@
         <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>567218_17</t>
+          <t>567218_25</t>
         </is>
       </c>
     </row>
@@ -2253,11 +2253,11 @@
         <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>15188846_4</t>
+          <t>15188846_7</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
         <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
         <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>HGTPB-29_40</t>
+          <t>HGTPB-29_39</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
         <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2437,11 +2437,11 @@
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>HGTPB-31_REVISADO_3</t>
+          <t>HGTPB-31_REVISADO_4</t>
         </is>
       </c>
     </row>
@@ -2460,11 +2460,11 @@
         <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>HGTPB-32_REVISADO_32</t>
+          <t>HGTPB-32_REVISADO_17</t>
         </is>
       </c>
     </row>
@@ -2483,11 +2483,11 @@
         <v>8</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>HGTPB-33_REVISADO_12</t>
+          <t>HGTPB-33_REVISADO_10</t>
         </is>
       </c>
     </row>
@@ -2506,11 +2506,11 @@
         <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>10852546_16</t>
+          <t>10852546_2</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
         <v>15</v>
       </c>
       <c r="D93" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2598,11 +2598,11 @@
         <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>HGTPB-38_56</t>
+          <t>HGTPB-38_15</t>
         </is>
       </c>
     </row>
@@ -2621,11 +2621,11 @@
         <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>HGTPB-39_14</t>
+          <t>HGTPB-39_6</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2690,11 +2690,11 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>HGTPB-42_18</t>
+          <t>HGTPB-42_12</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>HGTPB-44_6</t>
+          <t>HGTPB-44_14</t>
         </is>
       </c>
     </row>
@@ -2759,11 +2759,11 @@
         <v>7</v>
       </c>
       <c r="D102" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>HGTPB-45_2</t>
+          <t>HGTPB-45_29</t>
         </is>
       </c>
     </row>
@@ -2782,11 +2782,11 @@
         <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>570696_31</t>
+          <t>570696_44</t>
         </is>
       </c>
     </row>
@@ -2805,11 +2805,11 @@
         <v>8</v>
       </c>
       <c r="D104" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>HGTPB-47_11</t>
+          <t>HGTPB-47_7</t>
         </is>
       </c>
     </row>
@@ -2828,11 +2828,11 @@
         <v>13</v>
       </c>
       <c r="D105" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>HGTPB-48_51</t>
+          <t>HGTPB-48_41</t>
         </is>
       </c>
     </row>
@@ -2851,11 +2851,11 @@
         <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>HGTPB-49_29</t>
+          <t>HGTPB-49_40</t>
         </is>
       </c>
     </row>
@@ -2889,11 +2889,11 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>HGTPB-51_6</t>
+          <t>HGTPB-51_3</t>
         </is>
       </c>
     </row>
@@ -2912,11 +2912,11 @@
         <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>HGTPB-52_20</t>
+          <t>HGTPB-52_29</t>
         </is>
       </c>
     </row>
@@ -2935,11 +2935,11 @@
         <v>12</v>
       </c>
       <c r="D110" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>HGTPB-53_25</t>
+          <t>HGTPB-53_33</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2958,7 @@
         <v>17</v>
       </c>
       <c r="D111" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2981,11 +2981,11 @@
         <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>HGTPB-55_7</t>
+          <t>HGTPB-55_10</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3073,11 +3073,11 @@
         <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>HGTPB-59_11</t>
+          <t>HGTPB-59_25</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
         <v>30</v>
       </c>
       <c r="D117" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>28</v>
       </c>
       <c r="D119" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2702175_1</t>
+          <t>2702175_2</t>
         </is>
       </c>
     </row>
@@ -3188,11 +3188,11 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2228902_16</t>
+          <t>2228902_23</t>
         </is>
       </c>
     </row>
@@ -3211,11 +3211,11 @@
         <v>34</v>
       </c>
       <c r="D122" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2488582_3</t>
+          <t>2488582_1</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
         <v>7</v>
       </c>
       <c r="D123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2427767_18</t>
+          <t>2427767_38</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2107639_17</t>
+          <t>2107639_5</t>
         </is>
       </c>
     </row>
@@ -3303,11 +3303,11 @@
         <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2243457_20</t>
+          <t>2243457_1</t>
         </is>
       </c>
     </row>
@@ -3326,11 +3326,11 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2183094_47</t>
+          <t>2183094_42</t>
         </is>
       </c>
     </row>
@@ -3349,11 +3349,11 @@
         <v>21</v>
       </c>
       <c r="D128" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2288670_58</t>
+          <t>2288670_40</t>
         </is>
       </c>
     </row>
@@ -3395,11 +3395,11 @@
         <v>14</v>
       </c>
       <c r="D130" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2216498_9</t>
+          <t>2216498_7</t>
         </is>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>5</v>
       </c>
       <c r="D132" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2233210_30</t>
+          <t>2233210_31</t>
         </is>
       </c>
     </row>
@@ -3510,11 +3510,11 @@
         <v>25</v>
       </c>
       <c r="D135" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2029578_24</t>
+          <t>2029578_22</t>
         </is>
       </c>
     </row>
@@ -3533,11 +3533,11 @@
         <v>19</v>
       </c>
       <c r="D136" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2049922_31</t>
+          <t>2049922_33</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2289489_30</t>
+          <t>2289489_29</t>
         </is>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2359559_3</t>
+          <t>2359559_2</t>
         </is>
       </c>
     </row>
@@ -3602,11 +3602,11 @@
         <v>10</v>
       </c>
       <c r="D139" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2486399_44</t>
+          <t>2486399_5</t>
         </is>
       </c>
     </row>
@@ -3625,11 +3625,11 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2174585_17</t>
+          <t>2174585_15</t>
         </is>
       </c>
     </row>
@@ -3648,11 +3648,11 @@
         <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2625910_37</t>
+          <t>2625910_42</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3694,11 +3694,11 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2008977_6</t>
+          <t>2008977_24</t>
         </is>
       </c>
     </row>
@@ -3717,11 +3717,11 @@
         <v>10</v>
       </c>
       <c r="D144" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2396753_4</t>
+          <t>2396753_20</t>
         </is>
       </c>
     </row>
@@ -3740,11 +3740,11 @@
         <v>13</v>
       </c>
       <c r="D145" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2314368_15</t>
+          <t>2314368_19</t>
         </is>
       </c>
     </row>
@@ -3786,11 +3786,11 @@
         <v>18</v>
       </c>
       <c r="D147" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2279866_6</t>
+          <t>2279866_11</t>
         </is>
       </c>
     </row>
@@ -3809,11 +3809,11 @@
         <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2410587_8</t>
+          <t>2410587_24</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="D149" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3855,11 +3855,11 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2344333_26</t>
+          <t>2344333_37</t>
         </is>
       </c>
     </row>
@@ -3893,11 +3893,11 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2114679_28</t>
+          <t>2114679_30</t>
         </is>
       </c>
     </row>
@@ -3916,11 +3916,11 @@
         <v>12</v>
       </c>
       <c r="D153" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2102218_29</t>
+          <t>2102218_30</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2123606_42</t>
+          <t>2123606_24</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
         <v>3</v>
       </c>
       <c r="D155" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3985,11 +3985,11 @@
         <v>12</v>
       </c>
       <c r="D156" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2088688_1</t>
+          <t>2088688_27</t>
         </is>
       </c>
     </row>
@@ -4008,11 +4008,11 @@
         <v>14</v>
       </c>
       <c r="D157" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2731223_28</t>
+          <t>2731223_8</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
         <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4054,11 +4054,11 @@
         <v>7</v>
       </c>
       <c r="D159" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2273853_2</t>
+          <t>2273853_6</t>
         </is>
       </c>
     </row>
@@ -4077,11 +4077,11 @@
         <v>22</v>
       </c>
       <c r="D160" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2182871_21</t>
+          <t>2182871_16</t>
         </is>
       </c>
     </row>
@@ -4100,11 +4100,11 @@
         <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2119377_3</t>
+          <t>2119377_12</t>
         </is>
       </c>
     </row>
@@ -4123,11 +4123,11 @@
         <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2230647_15</t>
+          <t>2230647_6</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="D164" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4184,11 +4184,11 @@
         <v>16</v>
       </c>
       <c r="D165" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2053180_25</t>
+          <t>2053180_42</t>
         </is>
       </c>
     </row>
@@ -4207,11 +4207,11 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2168436_4</t>
+          <t>2168436_8</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
         <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>16</v>
       </c>
       <c r="D171" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>10</v>
       </c>
       <c r="D172" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="D173" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>3</v>
       </c>
       <c r="D176" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2079248_1</t>
+          <t>2079248_3</t>
         </is>
       </c>
     </row>
@@ -4475,11 +4475,11 @@
         <v>13</v>
       </c>
       <c r="D178" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2065522_16</t>
+          <t>2065522_4</t>
         </is>
       </c>
     </row>
@@ -4521,11 +4521,11 @@
         <v>5</v>
       </c>
       <c r="D180" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2232469_29</t>
+          <t>2232469_1</t>
         </is>
       </c>
     </row>
@@ -4561,11 +4561,11 @@
         <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2403137_16</t>
+          <t>2403137_4</t>
         </is>
       </c>
     </row>
@@ -4584,11 +4584,11 @@
         <v>10</v>
       </c>
       <c r="D183" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2644334_17</t>
+          <t>2644334_1</t>
         </is>
       </c>
     </row>
@@ -4607,11 +4607,11 @@
         <v>10</v>
       </c>
       <c r="D184" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2001777_32</t>
+          <t>2001777_23</t>
         </is>
       </c>
     </row>
@@ -4630,11 +4630,11 @@
         <v>10</v>
       </c>
       <c r="D185" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2269616_26</t>
+          <t>2269616_23</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2122392_46</t>
+          <t>2122392_33</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
         <v>7</v>
       </c>
       <c r="D187" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>15</v>
       </c>
       <c r="D188" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4722,11 +4722,11 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2596955_1</t>
+          <t>2596955_13</t>
         </is>
       </c>
     </row>
@@ -4745,11 +4745,11 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2119459_5</t>
+          <t>2119459_13</t>
         </is>
       </c>
     </row>
@@ -4768,11 +4768,11 @@
         <v>13</v>
       </c>
       <c r="D191" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2183532_43</t>
+          <t>2183532_29</t>
         </is>
       </c>
     </row>
@@ -4791,11 +4791,11 @@
         <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2322665_1</t>
+          <t>2322665_3</t>
         </is>
       </c>
     </row>
@@ -4814,11 +4814,11 @@
         <v>7</v>
       </c>
       <c r="D193" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2239374_1</t>
+          <t>2239374_2</t>
         </is>
       </c>
     </row>
@@ -4837,11 +4837,11 @@
         <v>7</v>
       </c>
       <c r="D194" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2139928_1</t>
+          <t>2139928_5</t>
         </is>
       </c>
     </row>
@@ -4860,11 +4860,11 @@
         <v>10</v>
       </c>
       <c r="D195" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2507989_7</t>
+          <t>2507989_14</t>
         </is>
       </c>
     </row>
@@ -4913,11 +4913,11 @@
         <v>23</v>
       </c>
       <c r="D198" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>1994059_8</t>
+          <t>1994059_12</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
         <v>19</v>
       </c>
       <c r="D199" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2288822_11</t>
+          <t>2288822_21</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
         <v>22</v>
       </c>
       <c r="D202" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -5020,11 +5020,11 @@
         <v>13</v>
       </c>
       <c r="D203" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>27187817_9</t>
+          <t>27187817_8</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
         <v>15</v>
       </c>
       <c r="D204" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -5066,11 +5066,11 @@
         <v>7</v>
       </c>
       <c r="D205" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>3299923_7</t>
+          <t>3299923_24</t>
         </is>
       </c>
     </row>
@@ -5089,11 +5089,11 @@
         <v>21</v>
       </c>
       <c r="D206" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>3100013_6</t>
+          <t>3100013_4</t>
         </is>
       </c>
     </row>
@@ -5150,11 +5150,11 @@
         <v>15</v>
       </c>
       <c r="D209" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>19531219115_22</t>
+          <t>19531219115_2</t>
         </is>
       </c>
     </row>
@@ -5173,11 +5173,11 @@
         <v>9</v>
       </c>
       <c r="D210" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>19550823854_2</t>
+          <t>19550823854_12</t>
         </is>
       </c>
     </row>
@@ -5196,11 +5196,11 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>19670725985_8</t>
+          <t>19670725985_9</t>
         </is>
       </c>
     </row>
@@ -5219,11 +5219,11 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>19460827885_7</t>
+          <t>19460827885_4</t>
         </is>
       </c>
     </row>
@@ -5347,11 +5347,11 @@
         <v>28</v>
       </c>
       <c r="D220" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>1354354214_6</t>
+          <t>1354354214_12</t>
         </is>
       </c>
     </row>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>1096714736_8</t>
+          <t>1096714736_11</t>
         </is>
       </c>
     </row>
@@ -5439,11 +5439,11 @@
         <v>13</v>
       </c>
       <c r="D224" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>1612054518_3</t>
+          <t>1612054518_2</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>3389194_10</t>
+          <t>3389194_16</t>
         </is>
       </c>
     </row>
@@ -5508,11 +5508,11 @@
         <v>4</v>
       </c>
       <c r="D227" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1553799146_5</t>
+          <t>1553799146_4</t>
         </is>
       </c>
     </row>
@@ -5531,11 +5531,11 @@
         <v>22</v>
       </c>
       <c r="D228" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>1531867547_12</t>
+          <t>1531867547_18</t>
         </is>
       </c>
     </row>
@@ -5554,7 +5554,7 @@
         <v>9</v>
       </c>
       <c r="D229" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5577,11 +5577,11 @@
         <v>12</v>
       </c>
       <c r="D230" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>1553400941_6</t>
+          <t>1553400941_10</t>
         </is>
       </c>
     </row>
@@ -5669,11 +5669,11 @@
         <v>16</v>
       </c>
       <c r="D234" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>5067841_34</t>
+          <t>5067841_37</t>
         </is>
       </c>
     </row>
@@ -5692,11 +5692,11 @@
         <v>8</v>
       </c>
       <c r="D235" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>1374092603_8</t>
+          <t>1374092603_2</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
         <v>33</v>
       </c>
       <c r="D237" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5761,11 +5761,11 @@
         <v>9</v>
       </c>
       <c r="D238" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>1145968508_6</t>
+          <t>1145968508_10</t>
         </is>
       </c>
     </row>
@@ -5784,11 +5784,11 @@
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>1553251195_7</t>
+          <t>1553251195_8</t>
         </is>
       </c>
     </row>
@@ -5807,11 +5807,11 @@
         <v>14</v>
       </c>
       <c r="D240" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>1244701976_10</t>
+          <t>1244701976_1</t>
         </is>
       </c>
     </row>
@@ -5830,7 +5830,7 @@
         <v>16</v>
       </c>
       <c r="D241" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5853,11 +5853,11 @@
         <v>5</v>
       </c>
       <c r="D242" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>1849532241_8</t>
+          <t>1849532241_15</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
         <v>8</v>
       </c>
       <c r="D243" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5937,11 +5937,11 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>1389102240_8</t>
+          <t>1389102240_11</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
         <v>22</v>
       </c>
       <c r="D248" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -6006,11 +6006,11 @@
         <v>15</v>
       </c>
       <c r="D249" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>1266670759_5</t>
+          <t>1266670759_3</t>
         </is>
       </c>
     </row>
@@ -6029,11 +6029,11 @@
         <v>20</v>
       </c>
       <c r="D250" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>1784132114_8</t>
+          <t>1784132114_14</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
         <v>27</v>
       </c>
       <c r="D251" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>9</v>
       </c>
       <c r="D252" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -6121,11 +6121,11 @@
         <v>10</v>
       </c>
       <c r="D254" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>HUPHM_35422_3</t>
+          <t>HUPHM_35422_4</t>
         </is>
       </c>
     </row>
@@ -6159,11 +6159,11 @@
         <v>8</v>
       </c>
       <c r="D256" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>HUPHM_37333_9</t>
+          <t>HUPHM_37333_7</t>
         </is>
       </c>
     </row>
@@ -6228,11 +6228,11 @@
         <v>8</v>
       </c>
       <c r="D259" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>HUPHM_40404_18</t>
+          <t>HUPHM_40404_2</t>
         </is>
       </c>
     </row>
@@ -6251,11 +6251,11 @@
         <v>10</v>
       </c>
       <c r="D260" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>HUPHM_41421_11</t>
+          <t>HUPHM_41421_30</t>
         </is>
       </c>
     </row>
@@ -6274,7 +6274,7 @@
         <v>15</v>
       </c>
       <c r="D261" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>10</v>
       </c>
       <c r="D262" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -6320,11 +6320,11 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>HUPHM_44121_38</t>
+          <t>HUPHM_44121_7</t>
         </is>
       </c>
     </row>
@@ -6343,11 +6343,11 @@
         <v>7</v>
       </c>
       <c r="D264" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>HUPHM_45525_14</t>
+          <t>HUPHM_45525_11</t>
         </is>
       </c>
     </row>
@@ -6366,11 +6366,11 @@
         <v>26</v>
       </c>
       <c r="D265" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>HUPHM_46265_40</t>
+          <t>HUPHM_46265_7</t>
         </is>
       </c>
     </row>
@@ -6389,11 +6389,11 @@
         <v>12</v>
       </c>
       <c r="D266" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>HUPHM_47167_9</t>
+          <t>HUPHM_47167_3</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>HUPHM_48228_12</t>
+          <t>HUPHM_48228_15</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6435,7 @@
         <v>20</v>
       </c>
       <c r="D268" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -6481,11 +6481,11 @@
         <v>12</v>
       </c>
       <c r="D270" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>PH 591-45_10</t>
+          <t>PH 591-45_5</t>
         </is>
       </c>
     </row>
@@ -6504,7 +6504,7 @@
         <v>8</v>
       </c>
       <c r="D271" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -6550,11 +6550,11 @@
         <v>14</v>
       </c>
       <c r="D273" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>PH 536-1_11</t>
+          <t>PH 536-1_13</t>
         </is>
       </c>
     </row>
@@ -6573,11 +6573,11 @@
         <v>15</v>
       </c>
       <c r="D274" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>PH 511-8_8</t>
+          <t>PH 511-8_9</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
         <v>12</v>
       </c>
       <c r="D275" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6688,11 +6688,11 @@
         <v>8</v>
       </c>
       <c r="D279" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>PH 483-2_6</t>
+          <t>PH 483-2_2</t>
         </is>
       </c>
     </row>
@@ -6711,11 +6711,11 @@
         <v>12</v>
       </c>
       <c r="D280" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>PH 668-30_6</t>
+          <t>PH 668-30_2</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
         <v>7</v>
       </c>
       <c r="D281" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -6757,11 +6757,11 @@
         <v>10</v>
       </c>
       <c r="D282" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>PH 600-65_1</t>
+          <t>PH 600-65_6</t>
         </is>
       </c>
     </row>
@@ -6780,11 +6780,11 @@
         <v>14</v>
       </c>
       <c r="D283" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>PH 482-53_6</t>
+          <t>PH 482-53_18</t>
         </is>
       </c>
     </row>
@@ -6803,11 +6803,11 @@
         <v>16</v>
       </c>
       <c r="D284" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>PH 484-45_10</t>
+          <t>PH 484-45_11</t>
         </is>
       </c>
     </row>
@@ -6841,11 +6841,11 @@
         <v>10</v>
       </c>
       <c r="D286" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>PH 395-62_3</t>
+          <t>PH 395-62_6</t>
         </is>
       </c>
     </row>
@@ -6864,11 +6864,11 @@
         <v>7</v>
       </c>
       <c r="D287" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>PH 394-23_2</t>
+          <t>PH 394-23_1</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>PH 387-60_5</t>
+          <t>PH 387-60_3</t>
         </is>
       </c>
     </row>
@@ -6910,11 +6910,11 @@
         <v>10</v>
       </c>
       <c r="D289" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>PH 796-17_12</t>
+          <t>PH 796-17_24</t>
         </is>
       </c>
     </row>
@@ -6933,11 +6933,11 @@
         <v>19</v>
       </c>
       <c r="D290" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>EPIQ4315_2</t>
+          <t>EPIQ4315_1</t>
         </is>
       </c>
     </row>
@@ -6956,7 +6956,7 @@
         <v>24</v>
       </c>
       <c r="D291" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -6979,11 +6979,11 @@
         <v>7</v>
       </c>
       <c r="D292" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>EPIZ3512_12</t>
+          <t>EPIZ3512_10</t>
         </is>
       </c>
     </row>
@@ -7017,11 +7017,11 @@
         <v>22</v>
       </c>
       <c r="D294" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SC 372-36_29</t>
+          <t>SC 372-36_27</t>
         </is>
       </c>
     </row>
@@ -7040,7 +7040,7 @@
         <v>10</v>
       </c>
       <c r="D295" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -7063,11 +7063,11 @@
         <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>AN0188357732_8</t>
+          <t>AN0188357732_1</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
         <v>10</v>
       </c>
       <c r="D298" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -7162,11 +7162,11 @@
         <v>10</v>
       </c>
       <c r="D301" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>SC 352-3_59</t>
+          <t>SC 352-3_61</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
         <v>10</v>
       </c>
       <c r="D302" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>PH 684-6_1</t>
+          <t>PH 684-6_5</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
         <v>8</v>
       </c>
       <c r="D304" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -7254,11 +7254,11 @@
         <v>12</v>
       </c>
       <c r="D305" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>PH 676-20_11</t>
+          <t>PH 676-20_10</t>
         </is>
       </c>
     </row>
@@ -7277,11 +7277,11 @@
         <v>7</v>
       </c>
       <c r="D306" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>PH 671-16_20</t>
+          <t>PH 671-16_10</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>SC 283-38_1</t>
+          <t>SC 283-38_10</t>
         </is>
       </c>
     </row>
@@ -7323,11 +7323,11 @@
         <v>16</v>
       </c>
       <c r="D308" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>PH 667-19_11</t>
+          <t>PH 667-19_19</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
         <v>17</v>
       </c>
       <c r="D309" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -7369,11 +7369,11 @@
         <v>10</v>
       </c>
       <c r="D310" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>EPIQ 246-22_2</t>
+          <t>EPIQ 246-22_3</t>
         </is>
       </c>
     </row>
@@ -7415,11 +7415,11 @@
         <v>10</v>
       </c>
       <c r="D312" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>EPIQ 139-23_6</t>
+          <t>EPIQ 139-23_2</t>
         </is>
       </c>
     </row>
@@ -7438,7 +7438,7 @@
         <v>10</v>
       </c>
       <c r="D313" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -7461,11 +7461,11 @@
         <v>7</v>
       </c>
       <c r="D314" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>EPIQ 27-1_4</t>
+          <t>EPIQ 27-1_10</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7484,7 @@
         <v>36</v>
       </c>
       <c r="D315" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -7507,11 +7507,11 @@
         <v>8</v>
       </c>
       <c r="D316" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>PH 380-4_10</t>
+          <t>PH 380-4_5</t>
         </is>
       </c>
     </row>
@@ -7592,11 +7592,11 @@
         <v>18</v>
       </c>
       <c r="D321" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>224454_12</t>
+          <t>224454_14</t>
         </is>
       </c>
     </row>
@@ -7715,11 +7715,11 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>717561_1</t>
+          <t>717561_10</t>
         </is>
       </c>
     </row>
@@ -7738,11 +7738,11 @@
         <v>21</v>
       </c>
       <c r="D329" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>519696_32</t>
+          <t>519696_6</t>
         </is>
       </c>
     </row>
@@ -7816,11 +7816,11 @@
         <v>10</v>
       </c>
       <c r="D333" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>101444_6</t>
+          <t>101444_10</t>
         </is>
       </c>
     </row>

--- a/data/save_pd.xlsx
+++ b/data/save_pd.xlsx
@@ -475,7 +475,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,7 +521,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -659,11 +659,11 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1758093_29</t>
+          <t>1758093_21</t>
         </is>
       </c>
     </row>
@@ -682,11 +682,11 @@
         <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2419082_3</t>
+          <t>2419082_2</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1572014_2</t>
+          <t>1572014_3</t>
         </is>
       </c>
     </row>
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2400470_2</t>
+          <t>2400470_3</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -912,11 +912,11 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2739127_10</t>
+          <t>2739127_23</t>
         </is>
       </c>
     </row>
@@ -958,11 +958,11 @@
         <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1740014_33</t>
+          <t>1740014_7</t>
         </is>
       </c>
     </row>
@@ -981,11 +981,11 @@
         <v>33</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>219913_19</t>
+          <t>219913_16</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1065,11 +1065,11 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2059319_2</t>
+          <t>2059319_1</t>
         </is>
       </c>
     </row>
@@ -1172,11 +1172,11 @@
         <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2511968_1</t>
+          <t>2511968_2</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1310,11 +1310,11 @@
         <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>704042_5</t>
+          <t>704042_1</t>
         </is>
       </c>
     </row>
@@ -1356,11 +1356,11 @@
         <v>8</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>717292_2</t>
+          <t>717292_1</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>481131_1</t>
+          <t>481131_3</t>
         </is>
       </c>
     </row>
@@ -1425,11 +1425,11 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>762372_3</t>
+          <t>762372_4</t>
         </is>
       </c>
     </row>
@@ -1448,11 +1448,11 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1279866_2</t>
+          <t>1279866_3</t>
         </is>
       </c>
     </row>
@@ -1494,11 +1494,11 @@
         <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2498702_25</t>
+          <t>2498702_24</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>261969_5</t>
+          <t>261969_6</t>
         </is>
       </c>
     </row>
@@ -1586,11 +1586,11 @@
         <v>43</v>
       </c>
       <c r="D51" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>165368_16</t>
+          <t>165368_19</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>37</v>
       </c>
       <c r="D52" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>24</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1724,11 +1724,11 @@
         <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2773991_15</t>
+          <t>2773991_16</t>
         </is>
       </c>
     </row>
@@ -1747,11 +1747,11 @@
         <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1000_4</t>
+          <t>1000_2</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1003_9</t>
+          <t>1003_12</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>18883658_10</t>
+          <t>18883658_5</t>
         </is>
       </c>
     </row>
@@ -2023,11 +2023,11 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10248043_11</t>
+          <t>10248043_31</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14883570_16</t>
+          <t>14883570_11</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
         <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2115,11 +2115,11 @@
         <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>568081_6</t>
+          <t>568081_2</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
         <v>16</v>
       </c>
       <c r="D75" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2207,11 +2207,11 @@
         <v>7</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>607886_20</t>
+          <t>607886_15</t>
         </is>
       </c>
     </row>
@@ -2230,11 +2230,11 @@
         <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>567218_25</t>
+          <t>567218_17</t>
         </is>
       </c>
     </row>
@@ -2253,11 +2253,11 @@
         <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>15188846_7</t>
+          <t>15188846_29</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
         <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2322,11 +2322,11 @@
         <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>HGTPB-26_20</t>
+          <t>HGTPB-26_16</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
         <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2460,11 +2460,11 @@
         <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>HGTPB-32_REVISADO_17</t>
+          <t>HGTPB-32_REVISADO_32</t>
         </is>
       </c>
     </row>
@@ -2506,11 +2506,11 @@
         <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>10852546_2</t>
+          <t>10852546_16</t>
         </is>
       </c>
     </row>
@@ -2621,11 +2621,11 @@
         <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>HGTPB-39_6</t>
+          <t>HGTPB-39_1</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>HGTPB-40_11</t>
+          <t>HGTPB-40_19</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>HGTPB-42_12</t>
+          <t>HGTPB-42_11</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
         <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>HGTPB-44_14</t>
+          <t>HGTPB-44_6</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>7</v>
       </c>
       <c r="D102" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
         <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>570696_44</t>
+          <t>570696_31</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>HGTPB-47_7</t>
+          <t>HGTPB-47_8</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="D105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2851,11 +2851,11 @@
         <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>HGTPB-49_40</t>
+          <t>HGTPB-49_29</t>
         </is>
       </c>
     </row>
@@ -2889,11 +2889,11 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>HGTPB-51_3</t>
+          <t>HGTPB-51_10</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="D110" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>HGTPB-54_1</t>
+          <t>HGTPB-54_2</t>
         </is>
       </c>
     </row>
@@ -3027,11 +3027,11 @@
         <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>HGTPB-57_16</t>
+          <t>HGTPB-57_3</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2702175_2</t>
+          <t>2702175_1</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
         <v>34</v>
       </c>
       <c r="D122" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>14</v>
       </c>
       <c r="D130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3441,11 +3441,11 @@
         <v>5</v>
       </c>
       <c r="D132" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2233210_31</t>
+          <t>2233210_30</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
         <v>17</v>
       </c>
       <c r="D133" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2359559_2</t>
+          <t>2359559_3</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
         <v>10</v>
       </c>
       <c r="D139" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2174585_15</t>
+          <t>2174585_40</t>
         </is>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
         <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3694,11 +3694,11 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2008977_24</t>
+          <t>2008977_8</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2396753_20</t>
+          <t>2396753_1</t>
         </is>
       </c>
     </row>
@@ -3740,11 +3740,11 @@
         <v>13</v>
       </c>
       <c r="D145" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2314368_19</t>
+          <t>2314368_16</t>
         </is>
       </c>
     </row>
@@ -3786,11 +3786,11 @@
         <v>18</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2279866_11</t>
+          <t>2279866_19</t>
         </is>
       </c>
     </row>
@@ -3809,11 +3809,11 @@
         <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2410587_24</t>
+          <t>2410587_18</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="D149" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2102218_30</t>
+          <t>2102218_24</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
         <v>7</v>
       </c>
       <c r="D154" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>3</v>
       </c>
       <c r="D155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="D156" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2673186_10</t>
+          <t>2673186_11</t>
         </is>
       </c>
     </row>
@@ -4123,11 +4123,11 @@
         <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2230647_6</t>
+          <t>2230647_29</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="D164" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>16</v>
       </c>
       <c r="D171" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4360,11 +4360,11 @@
         <v>3</v>
       </c>
       <c r="D173" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2062611_42</t>
+          <t>2062611_10</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>3</v>
       </c>
       <c r="D176" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4475,11 +4475,11 @@
         <v>13</v>
       </c>
       <c r="D178" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2065522_4</t>
+          <t>2065522_6</t>
         </is>
       </c>
     </row>
@@ -4498,11 +4498,11 @@
         <v>8</v>
       </c>
       <c r="D179" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2431691_34</t>
+          <t>2431691_43</t>
         </is>
       </c>
     </row>
@@ -4521,11 +4521,11 @@
         <v>5</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2232469_1</t>
+          <t>2232469_29</t>
         </is>
       </c>
     </row>
@@ -4561,11 +4561,11 @@
         <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2403137_4</t>
+          <t>2403137_1</t>
         </is>
       </c>
     </row>
@@ -4607,11 +4607,11 @@
         <v>10</v>
       </c>
       <c r="D184" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2001777_23</t>
+          <t>2001777_34</t>
         </is>
       </c>
     </row>
@@ -4630,11 +4630,11 @@
         <v>10</v>
       </c>
       <c r="D185" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2269616_23</t>
+          <t>2269616_45</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
         <v>7</v>
       </c>
       <c r="D187" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2617461_16</t>
+          <t>2617461_4</t>
         </is>
       </c>
     </row>
@@ -4722,11 +4722,11 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2596955_13</t>
+          <t>2596955_15</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
         <v>13</v>
       </c>
       <c r="D191" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4791,11 +4791,11 @@
         <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2322665_3</t>
+          <t>2322665_9</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
         <v>7</v>
       </c>
       <c r="D194" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4860,11 +4860,11 @@
         <v>10</v>
       </c>
       <c r="D195" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2507989_14</t>
+          <t>2507989_17</t>
         </is>
       </c>
     </row>
@@ -4913,11 +4913,11 @@
         <v>23</v>
       </c>
       <c r="D198" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>1994059_12</t>
+          <t>1994059_8</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
         <v>19</v>
       </c>
       <c r="D199" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4959,11 +4959,11 @@
         <v>7</v>
       </c>
       <c r="D200" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2288822_21</t>
+          <t>2288822_22</t>
         </is>
       </c>
     </row>
@@ -4997,11 +4997,11 @@
         <v>22</v>
       </c>
       <c r="D202" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2184812_1</t>
+          <t>2184812_6</t>
         </is>
       </c>
     </row>
@@ -5020,11 +5020,11 @@
         <v>13</v>
       </c>
       <c r="D203" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>27187817_8</t>
+          <t>27187817_10</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>3299923_24</t>
+          <t>3299923_15</t>
         </is>
       </c>
     </row>
@@ -5089,11 +5089,11 @@
         <v>21</v>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>3100013_4</t>
+          <t>3100013_6</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
         <v>15</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>9</v>
       </c>
       <c r="D210" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -5219,11 +5219,11 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>19460827885_4</t>
+          <t>19460827885_7</t>
         </is>
       </c>
     </row>
@@ -5347,11 +5347,11 @@
         <v>28</v>
       </c>
       <c r="D220" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>1354354214_12</t>
+          <t>1354354214_4</t>
         </is>
       </c>
     </row>
@@ -5393,11 +5393,11 @@
         <v>20</v>
       </c>
       <c r="D222" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>1531305452_4</t>
+          <t>1531305452_3</t>
         </is>
       </c>
     </row>
@@ -5439,11 +5439,11 @@
         <v>13</v>
       </c>
       <c r="D224" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>1612054518_2</t>
+          <t>1612054518_18</t>
         </is>
       </c>
     </row>
@@ -5462,7 +5462,7 @@
         <v>20</v>
       </c>
       <c r="D225" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5485,11 +5485,11 @@
         <v>17</v>
       </c>
       <c r="D226" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>3389194_16</t>
+          <t>3389194_15</t>
         </is>
       </c>
     </row>
@@ -5508,11 +5508,11 @@
         <v>4</v>
       </c>
       <c r="D227" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1553799146_4</t>
+          <t>1553799146_1</t>
         </is>
       </c>
     </row>
@@ -5531,11 +5531,11 @@
         <v>22</v>
       </c>
       <c r="D228" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>1531867547_18</t>
+          <t>1531867547_8</t>
         </is>
       </c>
     </row>
@@ -5554,7 +5554,7 @@
         <v>9</v>
       </c>
       <c r="D229" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="D230" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="D233" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5669,11 +5669,11 @@
         <v>16</v>
       </c>
       <c r="D234" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>5067841_37</t>
+          <t>5067841_34</t>
         </is>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
         <v>8</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>33</v>
       </c>
       <c r="D237" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5761,11 +5761,11 @@
         <v>9</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>1145968508_10</t>
+          <t>1145968508_6</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5807,11 +5807,11 @@
         <v>14</v>
       </c>
       <c r="D240" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>1244701976_1</t>
+          <t>1244701976_10</t>
         </is>
       </c>
     </row>
@@ -5830,11 +5830,11 @@
         <v>16</v>
       </c>
       <c r="D241" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>1491110369_5</t>
+          <t>1491110369_10</t>
         </is>
       </c>
     </row>
@@ -5853,11 +5853,11 @@
         <v>5</v>
       </c>
       <c r="D242" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>1849532241_15</t>
+          <t>1849532241_12</t>
         </is>
       </c>
     </row>
@@ -5937,11 +5937,11 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>1389102240_11</t>
+          <t>1389102240_9</t>
         </is>
       </c>
     </row>
@@ -5983,11 +5983,11 @@
         <v>22</v>
       </c>
       <c r="D248" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>1437929717_5</t>
+          <t>1437929717_10</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>1266670759_3</t>
+          <t>1266670759_2</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>1553813900_8</t>
+          <t>1553813900_7</t>
         </is>
       </c>
     </row>
@@ -6121,11 +6121,11 @@
         <v>10</v>
       </c>
       <c r="D254" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>HUPHM_35422_4</t>
+          <t>HUPHM_35422_3</t>
         </is>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
         <v>8</v>
       </c>
       <c r="D256" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -6205,11 +6205,11 @@
         <v>13</v>
       </c>
       <c r="D258" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>HUPHM_39493_7</t>
+          <t>HUPHM_39493_3</t>
         </is>
       </c>
     </row>
@@ -6228,11 +6228,11 @@
         <v>8</v>
       </c>
       <c r="D259" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>HUPHM_40404_2</t>
+          <t>HUPHM_40404_18</t>
         </is>
       </c>
     </row>
@@ -6274,7 +6274,7 @@
         <v>15</v>
       </c>
       <c r="D261" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>HUPHM_43321_10</t>
+          <t>HUPHM_43321_3</t>
         </is>
       </c>
     </row>
@@ -6320,7 +6320,7 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -6343,11 +6343,11 @@
         <v>7</v>
       </c>
       <c r="D264" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>HUPHM_45525_11</t>
+          <t>HUPHM_45525_14</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>HUPHM_47167_3</t>
+          <t>HUPHM_47167_9</t>
         </is>
       </c>
     </row>
@@ -6412,7 +6412,7 @@
         <v>15</v>
       </c>
       <c r="D267" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>12</v>
       </c>
       <c r="D270" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -6550,11 +6550,11 @@
         <v>14</v>
       </c>
       <c r="D273" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>PH 536-1_13</t>
+          <t>PH 536-1_10</t>
         </is>
       </c>
     </row>
@@ -6573,11 +6573,11 @@
         <v>15</v>
       </c>
       <c r="D274" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>PH 511-8_9</t>
+          <t>PH 511-8_8</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
         <v>12</v>
       </c>
       <c r="D275" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>PH 368-49_12</t>
+          <t>PH 368-49_10</t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>AN0197572833_2</t>
+          <t>AN0197572833_9</t>
         </is>
       </c>
     </row>
@@ -6780,11 +6780,11 @@
         <v>14</v>
       </c>
       <c r="D283" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>PH 482-53_18</t>
+          <t>PH 482-53_14</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>PH 395-62_6</t>
+          <t>PH 395-62_3</t>
         </is>
       </c>
     </row>
@@ -6864,11 +6864,11 @@
         <v>7</v>
       </c>
       <c r="D287" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>PH 394-23_1</t>
+          <t>PH 394-23_2</t>
         </is>
       </c>
     </row>
@@ -6887,11 +6887,11 @@
         <v>8</v>
       </c>
       <c r="D288" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>PH 387-60_3</t>
+          <t>PH 387-60_5</t>
         </is>
       </c>
     </row>
@@ -6910,11 +6910,11 @@
         <v>10</v>
       </c>
       <c r="D289" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>PH 796-17_24</t>
+          <t>PH 796-17_12</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
         <v>19</v>
       </c>
       <c r="D290" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>22</v>
       </c>
       <c r="D294" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>10</v>
       </c>
       <c r="D295" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>AN0201948341_7</t>
+          <t>AN0201948341_11</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
         <v>15</v>
       </c>
       <c r="D300" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>10</v>
       </c>
       <c r="D302" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>PH 683-20_21</t>
+          <t>PH 683-20_8</t>
         </is>
       </c>
     </row>
@@ -7254,7 +7254,7 @@
         <v>12</v>
       </c>
       <c r="D305" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>PH 671-16_10</t>
+          <t>PH 671-16_20</t>
         </is>
       </c>
     </row>
@@ -7300,11 +7300,11 @@
         <v>11</v>
       </c>
       <c r="D307" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>SC 283-38_10</t>
+          <t>SC 283-38_16</t>
         </is>
       </c>
     </row>
@@ -7323,11 +7323,11 @@
         <v>16</v>
       </c>
       <c r="D308" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>PH 667-19_19</t>
+          <t>PH 667-19_14</t>
         </is>
       </c>
     </row>
@@ -7346,11 +7346,11 @@
         <v>17</v>
       </c>
       <c r="D309" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>EPIQ 301-21_2</t>
+          <t>EPIQ 301-21_1</t>
         </is>
       </c>
     </row>
@@ -7392,7 +7392,7 @@
         <v>8</v>
       </c>
       <c r="D311" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>10</v>
       </c>
       <c r="D313" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -7461,11 +7461,11 @@
         <v>7</v>
       </c>
       <c r="D314" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>EPIQ 27-1_10</t>
+          <t>EPIQ 27-1_4</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>717561_10</t>
+          <t>717561_1</t>
         </is>
       </c>
     </row>
@@ -7738,7 +7738,7 @@
         <v>21</v>
       </c>
       <c r="D329" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>18</v>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -7816,11 +7816,11 @@
         <v>10</v>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>101444_10</t>
+          <t>101444_6</t>
         </is>
       </c>
     </row>

--- a/data/save_pd.xlsx
+++ b/data/save_pd.xlsx
@@ -475,7 +475,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -705,11 +705,11 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2307720_1</t>
+          <t>2307720_3</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2454406_1</t>
+          <t>2454406_2</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2400470_3</t>
+          <t>2400470_2</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -912,11 +912,11 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2739127_23</t>
+          <t>2739127_10</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>219913_16</t>
+          <t>219913_19</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1448,11 +1448,11 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1279866_3</t>
+          <t>1279866_2</t>
         </is>
       </c>
     </row>
@@ -1471,11 +1471,11 @@
         <v>13</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1288296_27</t>
+          <t>1288296_26</t>
         </is>
       </c>
     </row>
@@ -1494,11 +1494,11 @@
         <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2498702_24</t>
+          <t>2498702_25</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>261969_6</t>
+          <t>261969_5</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>165368_19</t>
+          <t>165368_16</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>37</v>
       </c>
       <c r="D52" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1724,11 +1724,11 @@
         <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2773991_16</t>
+          <t>2773991_15</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1003_12</t>
+          <t>1003_9</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>21</v>
       </c>
       <c r="D67" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>18883658_5</t>
+          <t>18883658_10</t>
         </is>
       </c>
     </row>
@@ -2023,11 +2023,11 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10248043_31</t>
+          <t>10248043_11</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
         <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>16</v>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2253,11 +2253,11 @@
         <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>15188846_29</t>
+          <t>15188846_7</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
         <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
         <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>HGTPB-29_39</t>
+          <t>HGTPB-29_17</t>
         </is>
       </c>
     </row>
@@ -2460,11 +2460,11 @@
         <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>HGTPB-32_REVISADO_32</t>
+          <t>HGTPB-32_REVISADO_17</t>
         </is>
       </c>
     </row>
@@ -2506,11 +2506,11 @@
         <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>10852546_16</t>
+          <t>10852546_9</t>
         </is>
       </c>
     </row>
@@ -2621,11 +2621,11 @@
         <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>HGTPB-39_1</t>
+          <t>HGTPB-39_6</t>
         </is>
       </c>
     </row>
@@ -2644,11 +2644,11 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>HGTPB-40_19</t>
+          <t>HGTPB-40_48</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>HGTPB-42_11</t>
+          <t>HGTPB-42_12</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
         <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2759,11 +2759,11 @@
         <v>7</v>
       </c>
       <c r="D102" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>HGTPB-45_29</t>
+          <t>HGTPB-45_14</t>
         </is>
       </c>
     </row>
@@ -2782,11 +2782,11 @@
         <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>570696_31</t>
+          <t>570696_44</t>
         </is>
       </c>
     </row>
@@ -2805,11 +2805,11 @@
         <v>8</v>
       </c>
       <c r="D104" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>HGTPB-47_8</t>
+          <t>HGTPB-47_7</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="D105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2851,11 +2851,11 @@
         <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>HGTPB-49_29</t>
+          <t>HGTPB-49_40</t>
         </is>
       </c>
     </row>
@@ -2889,11 +2889,11 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>HGTPB-51_10</t>
+          <t>HGTPB-51_3</t>
         </is>
       </c>
     </row>
@@ -3027,11 +3027,11 @@
         <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>HGTPB-57_3</t>
+          <t>HGTPB-57_16</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>HGTPB-59_25</t>
+          <t>HGTPB-59_11</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
         <v>34</v>
       </c>
       <c r="D122" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>14</v>
       </c>
       <c r="D130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3441,11 +3441,11 @@
         <v>5</v>
       </c>
       <c r="D132" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2233210_30</t>
+          <t>2233210_31</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
         <v>17</v>
       </c>
       <c r="D133" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2359559_3</t>
+          <t>2359559_2</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2396753_1</t>
+          <t>2396753_20</t>
         </is>
       </c>
     </row>
@@ -3809,11 +3809,11 @@
         <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2410587_18</t>
+          <t>2410587_6</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="D149" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3916,11 +3916,11 @@
         <v>12</v>
       </c>
       <c r="D153" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2102218_24</t>
+          <t>2102218_19</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
         <v>3</v>
       </c>
       <c r="D155" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="D156" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4123,11 +4123,11 @@
         <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2230647_29</t>
+          <t>2230647_5</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="D164" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>16</v>
       </c>
       <c r="D171" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="D173" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4475,11 +4475,11 @@
         <v>13</v>
       </c>
       <c r="D178" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2065522_6</t>
+          <t>2065522_4</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
         <v>5</v>
       </c>
       <c r="D180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4561,11 +4561,11 @@
         <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2403137_1</t>
+          <t>2403137_12</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
         <v>10</v>
       </c>
       <c r="D184" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2122392_33</t>
+          <t>2122392_37</t>
         </is>
       </c>
     </row>
@@ -4745,11 +4745,11 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2119459_13</t>
+          <t>2119459_11</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
         <v>13</v>
       </c>
       <c r="D191" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4791,11 +4791,11 @@
         <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2322665_9</t>
+          <t>2322665_1</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
         <v>7</v>
       </c>
       <c r="D194" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="D195" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>19</v>
       </c>
       <c r="D199" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4959,11 +4959,11 @@
         <v>7</v>
       </c>
       <c r="D200" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2288822_22</t>
+          <t>2288822_21</t>
         </is>
       </c>
     </row>
@@ -4997,11 +4997,11 @@
         <v>22</v>
       </c>
       <c r="D202" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2184812_6</t>
+          <t>2184812_1</t>
         </is>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
         <v>13</v>
       </c>
       <c r="D203" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>3101013_13</t>
+          <t>3101013_12</t>
         </is>
       </c>
     </row>
@@ -5066,11 +5066,11 @@
         <v>7</v>
       </c>
       <c r="D205" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>3299923_15</t>
+          <t>3299923_24</t>
         </is>
       </c>
     </row>
@@ -5089,11 +5089,11 @@
         <v>21</v>
       </c>
       <c r="D206" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>3100013_6</t>
+          <t>3100013_9</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
         <v>9</v>
       </c>
       <c r="D210" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>28</v>
       </c>
       <c r="D220" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>7</v>
       </c>
       <c r="D221" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -5393,11 +5393,11 @@
         <v>20</v>
       </c>
       <c r="D222" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>1531305452_3</t>
+          <t>1531305452_4</t>
         </is>
       </c>
     </row>
@@ -5439,11 +5439,11 @@
         <v>13</v>
       </c>
       <c r="D224" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>1612054518_18</t>
+          <t>1612054518_2</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="D226" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5531,11 +5531,11 @@
         <v>22</v>
       </c>
       <c r="D228" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>1531867547_8</t>
+          <t>1531867547_2</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="D233" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5669,11 +5669,11 @@
         <v>16</v>
       </c>
       <c r="D234" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>5067841_34</t>
+          <t>5067841_36</t>
         </is>
       </c>
     </row>
@@ -5692,11 +5692,11 @@
         <v>8</v>
       </c>
       <c r="D235" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>1374092603_2</t>
+          <t>1374092603_8</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>1389102240_9</t>
+          <t>1389102240_11</t>
         </is>
       </c>
     </row>
@@ -5983,11 +5983,11 @@
         <v>22</v>
       </c>
       <c r="D248" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>1437929717_10</t>
+          <t>1437929717_5</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>1266670759_2</t>
+          <t>1266670759_3</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>1553813900_7</t>
+          <t>1553813900_8</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>HUPHM_35422_3</t>
+          <t>HUPHM_35422_4</t>
         </is>
       </c>
     </row>
@@ -6205,7 +6205,7 @@
         <v>13</v>
       </c>
       <c r="D258" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>10</v>
       </c>
       <c r="D260" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>15</v>
       </c>
       <c r="D261" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>HUPHM_43321_3</t>
+          <t>HUPHM_43321_10</t>
         </is>
       </c>
     </row>
@@ -6320,7 +6320,7 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -6412,11 +6412,11 @@
         <v>15</v>
       </c>
       <c r="D267" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>HUPHM_48228_15</t>
+          <t>HUPHM_48228_12</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
         <v>12</v>
       </c>
       <c r="D270" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>8</v>
       </c>
       <c r="D271" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -6550,11 +6550,11 @@
         <v>14</v>
       </c>
       <c r="D273" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>PH 536-1_10</t>
+          <t>PH 536-1_13</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
         <v>15</v>
       </c>
       <c r="D274" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>12</v>
       </c>
       <c r="D275" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="D279" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -6780,11 +6780,11 @@
         <v>14</v>
       </c>
       <c r="D283" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>PH 482-53_14</t>
+          <t>PH 482-53_6</t>
         </is>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
         <v>10</v>
       </c>
       <c r="D289" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>22</v>
       </c>
       <c r="D294" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>10</v>
       </c>
       <c r="D295" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>10</v>
       </c>
       <c r="D302" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>PH 683-20_8</t>
+          <t>PH 683-20_21</t>
         </is>
       </c>
     </row>
@@ -7254,7 +7254,7 @@
         <v>12</v>
       </c>
       <c r="D305" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>PH 671-16_20</t>
+          <t>PH 671-16_10</t>
         </is>
       </c>
     </row>
@@ -7300,11 +7300,11 @@
         <v>11</v>
       </c>
       <c r="D307" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>SC 283-38_16</t>
+          <t>SC 283-38_10</t>
         </is>
       </c>
     </row>
@@ -7392,7 +7392,7 @@
         <v>8</v>
       </c>
       <c r="D311" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>7</v>
       </c>
       <c r="D314" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>36</v>
       </c>
       <c r="D315" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -7715,11 +7715,11 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>717561_1</t>
+          <t>717561_11</t>
         </is>
       </c>
     </row>
@@ -7793,7 +7793,7 @@
         <v>18</v>
       </c>
       <c r="D332" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -7816,11 +7816,11 @@
         <v>10</v>
       </c>
       <c r="D333" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>101444_6</t>
+          <t>101444_7</t>
         </is>
       </c>
     </row>
